--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/trans/TTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Mexico\eps-mexico\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD8704B-9D87-E64E-B457-372B6E45709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7835CC45-5DD0-46F1-A965-EC51691804CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3264,7 +3264,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Per cent" xfId="10" builtinId="5"/>
+    <cellStyle name="Percent" xfId="10" builtinId="5"/>
     <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3283,7 +3283,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3320,7 +3320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3506,7 +3506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="343203464"/>
@@ -3565,7 +3565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="343204120"/>
@@ -3606,7 +3606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4630,18 +4630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="13"/>
-    <col min="2" max="2" width="56.33203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="13"/>
-    <col min="5" max="5" width="73.1640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="9.1796875" style="13"/>
+    <col min="2" max="2" width="56.36328125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="13"/>
+    <col min="5" max="5" width="73.1796875" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>915</v>
       </c>
@@ -4650,11 +4650,11 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D2" s="47"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
@@ -4686,14 +4686,14 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>133</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>131</v>
       </c>
@@ -4711,13 +4711,13 @@
         <v>937</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" s="47"/>
       <c r="E9" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>78</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>147</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
@@ -4744,14 +4744,14 @@
         <v>940</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="42" t="s">
         <v>146</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>148</v>
       </c>
@@ -4769,13 +4769,13 @@
         <v>937</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" s="47"/>
       <c r="E16" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>929</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>930</v>
       </c>
@@ -4802,14 +4802,14 @@
         <v>944</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="45" t="s">
         <v>931</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
         <v>148</v>
       </c>
@@ -4818,13 +4818,13 @@
         <v>945</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D22" s="47"/>
       <c r="E22" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>79</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>130</v>
       </c>
@@ -4860,14 +4860,14 @@
         <v>948</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>132</v>
       </c>
@@ -4876,13 +4876,13 @@
         <v>949</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D29" s="47"/>
       <c r="E29" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>80</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
@@ -4900,13 +4900,13 @@
         <v>951</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D32" s="47"/>
       <c r="E32" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>81</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
         <v>56</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>2014</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
@@ -4942,372 +4942,372 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="47"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" s="16"/>
       <c r="D38" s="47" t="s">
         <v>956</v>
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" s="6">
         <v>2015</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="33" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="17"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="18"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="13" t="s">
         <v>55</v>
       </c>
@@ -5330,15 +5330,17 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>0.79121044589552558</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>1.2353695258898179E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>6.482659698878529E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -6382,15 +6384,17 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -6519,7 +6523,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>0.79121044589552558</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -6777,7 +6781,7 @@
         <v>5.5057958314065986E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -7172,128 +7176,128 @@
         <f>Data!H28</f>
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="e">
+      <c r="C7" s="13">
         <f>Data!I28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
         <f>Data!J28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
         <f>Data!K28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
         <f>Data!L28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
         <f>Data!M28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
         <f>Data!N28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <f>Data!O28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <f>Data!P28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
         <f>Data!Q28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
         <f>Data!R28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
         <f>Data!S28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
         <f>Data!T28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
         <f>Data!U28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
         <f>Data!V28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
         <f>Data!W28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
         <f>Data!X28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
         <f>Data!Y28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
         <f>Data!Z28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
         <f>Data!AA28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
         <f>Data!AB28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13">
         <f>Data!AC28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
         <f>Data!AD28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
         <f>Data!AE28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
         <f>Data!AF28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
         <f>Data!AG28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
         <f>Data!AH28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
         <f>Data!AI28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
         <f>Data!AJ28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="13">
         <f>Data!AK28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF7" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
         <f>Data!AL28</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -7301,125 +7305,125 @@
         <f>Data!H29</f>
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="e">
+      <c r="C8" s="13">
         <f>Data!I29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
         <f>Data!J29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
         <f>Data!K29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <f>Data!L29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
         <f>Data!M29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
         <f>Data!N29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <f>Data!O29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <f>Data!P29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
         <f>Data!Q29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
         <f>Data!R29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <f>Data!S29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
         <f>Data!T29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
         <f>Data!U29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
         <f>Data!V29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
         <f>Data!W29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
         <f>Data!X29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
         <f>Data!Y29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
         <f>Data!Z29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
         <f>Data!AA29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
         <f>Data!AB29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
         <f>Data!AC29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
         <f>Data!AD29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
         <f>Data!AE29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
         <f>Data!AF29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
         <f>Data!AG29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
         <f>Data!AH29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
         <f>Data!AI29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
         <f>Data!AJ29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13">
         <f>Data!AK29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
         <f>Data!AL29</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7436,13 +7440,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -8216,7 +8220,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>6.1785980743151447E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -8488,13 +8492,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -8623,7 +8627,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8752,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -8881,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -9010,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -9397,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -9540,13 +9544,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -9675,7 +9679,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -9933,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -10062,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -10191,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -10594,13 +10598,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -10729,7 +10733,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -11374,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -11503,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -11646,13 +11650,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -11910,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -12039,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -12168,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -12297,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -12555,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -12700,13 +12704,13 @@
       <selection activeCell="B4" sqref="B4:AF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -12835,7 +12839,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -12964,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -13093,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -13191,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -13289,7 +13293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -13418,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -13690,13 +13694,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -13954,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -14083,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -14212,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -14341,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -14599,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -14744,13 +14748,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -14879,7 +14883,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -15008,7 +15012,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -15137,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -15395,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -15524,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -15653,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -15793,9 +15797,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15893,27 +15897,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>157</v>
       </c>
@@ -16020,7 +16024,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -16028,7 +16032,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -16036,7 +16040,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -16146,7 +16150,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -16256,7 +16260,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -16366,7 +16370,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -16374,7 +16378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -16484,7 +16488,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -16594,7 +16598,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -16704,7 +16708,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -16814,7 +16818,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -16924,7 +16928,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -17034,7 +17038,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -17144,7 +17148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -17254,7 +17258,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -17364,7 +17368,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -17474,7 +17478,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -17584,7 +17588,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -17694,7 +17698,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -17804,7 +17808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -17914,7 +17918,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -18024,7 +18028,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18134,7 +18138,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18244,7 +18248,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -18252,7 +18256,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -18260,7 +18264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -18370,7 +18374,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -18590,7 +18594,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>237</v>
       </c>
@@ -18598,7 +18602,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -18708,7 +18712,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -18818,7 +18822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -18928,7 +18932,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -19038,7 +19042,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -19148,7 +19152,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -19258,7 +19262,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -19368,7 +19372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -19478,7 +19482,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -19588,7 +19592,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -19698,7 +19702,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>207</v>
       </c>
@@ -19808,7 +19812,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -19918,7 +19922,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>212</v>
       </c>
@@ -20028,7 +20032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -20138,7 +20142,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -20248,7 +20252,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20358,7 +20362,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20468,7 +20472,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20578,7 +20582,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20688,7 +20692,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20798,7 +20802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -20809,7 +20813,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>283</v>
       </c>
@@ -20919,7 +20923,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>286</v>
       </c>
@@ -21029,7 +21033,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>289</v>
       </c>
@@ -21139,7 +21143,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>292</v>
       </c>
@@ -21249,7 +21253,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>295</v>
       </c>
@@ -21359,7 +21363,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -21469,7 +21473,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>301</v>
       </c>
@@ -21579,7 +21583,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>304</v>
       </c>
@@ -21689,7 +21693,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21799,7 +21803,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>309</v>
       </c>
@@ -21909,7 +21913,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>312</v>
       </c>
@@ -22019,7 +22023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22141,17 +22145,17 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -22280,7 +22284,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -22378,7 +22382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -22476,7 +22480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -22574,7 +22578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -22672,7 +22676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -22770,7 +22774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -22868,7 +22872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
@@ -22982,9 +22986,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -23082,27 +23086,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>157</v>
       </c>
@@ -23209,7 +23213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -23217,7 +23221,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -23225,7 +23229,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -23335,7 +23339,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -23445,7 +23449,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -23555,7 +23559,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -23563,7 +23567,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -23673,7 +23677,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -23783,7 +23787,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -23893,7 +23897,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -24003,7 +24007,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -24113,7 +24117,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -24223,7 +24227,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -24333,7 +24337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -24443,7 +24447,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -24553,7 +24557,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -24663,7 +24667,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -24773,7 +24777,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -24883,7 +24887,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -24993,7 +24997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -25103,7 +25107,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -25213,7 +25217,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -25323,7 +25327,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>340</v>
       </c>
@@ -25331,7 +25335,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>228</v>
       </c>
@@ -25339,7 +25343,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -25449,7 +25453,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -25559,7 +25563,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -25669,7 +25673,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -25677,7 +25681,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -25787,7 +25791,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -25897,7 +25901,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -26007,7 +26011,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -26117,7 +26121,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -26227,7 +26231,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -26337,7 +26341,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -26447,7 +26451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -26557,7 +26561,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -26667,7 +26671,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -26777,7 +26781,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -26887,7 +26891,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -26997,7 +27001,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -27107,7 +27111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -27217,7 +27221,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>267</v>
       </c>
@@ -27327,7 +27331,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -27437,7 +27441,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -27564,9 +27568,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -27664,27 +27668,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>157</v>
       </c>
@@ -27791,7 +27795,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -27799,7 +27803,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>410</v>
       </c>
@@ -27807,7 +27811,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>411</v>
       </c>
@@ -27815,7 +27819,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>412</v>
       </c>
@@ -27925,7 +27929,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -28035,7 +28039,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>416</v>
       </c>
@@ -28145,7 +28149,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>418</v>
       </c>
@@ -28255,7 +28259,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>420</v>
       </c>
@@ -28365,7 +28369,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>292</v>
       </c>
@@ -28475,7 +28479,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -28585,7 +28589,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -28695,7 +28699,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -28805,7 +28809,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -28915,7 +28919,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>430</v>
       </c>
@@ -28923,7 +28927,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -29033,7 +29037,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>414</v>
       </c>
@@ -29143,7 +29147,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>416</v>
       </c>
@@ -29253,7 +29257,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -29363,7 +29367,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>420</v>
       </c>
@@ -29473,7 +29477,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -29583,7 +29587,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>423</v>
       </c>
@@ -29693,7 +29697,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -29803,7 +29807,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -29913,7 +29917,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>440</v>
       </c>
@@ -30023,7 +30027,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -30031,7 +30035,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>412</v>
       </c>
@@ -30141,7 +30145,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>414</v>
       </c>
@@ -30251,7 +30255,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -30361,7 +30365,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>418</v>
       </c>
@@ -30471,7 +30475,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -30581,7 +30585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>292</v>
       </c>
@@ -30691,7 +30695,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>423</v>
       </c>
@@ -30801,7 +30805,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -30911,7 +30915,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -31021,7 +31025,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>452</v>
       </c>
@@ -31131,7 +31135,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>454</v>
       </c>
@@ -31241,7 +31245,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>456</v>
       </c>
@@ -31249,7 +31253,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>411</v>
       </c>
@@ -31257,7 +31261,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>412</v>
       </c>
@@ -31367,7 +31371,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>414</v>
       </c>
@@ -31477,7 +31481,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>416</v>
       </c>
@@ -31587,7 +31591,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>418</v>
       </c>
@@ -31697,7 +31701,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>420</v>
       </c>
@@ -31807,7 +31811,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>292</v>
       </c>
@@ -31917,7 +31921,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>423</v>
       </c>
@@ -32027,7 +32031,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>425</v>
       </c>
@@ -32137,7 +32141,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>304</v>
       </c>
@@ -32247,7 +32251,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>428</v>
       </c>
@@ -32357,7 +32361,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>430</v>
       </c>
@@ -32365,7 +32369,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>412</v>
       </c>
@@ -32475,7 +32479,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>414</v>
       </c>
@@ -32585,7 +32589,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>416</v>
       </c>
@@ -32695,7 +32699,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>418</v>
       </c>
@@ -32805,7 +32809,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>420</v>
       </c>
@@ -32915,7 +32919,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>292</v>
       </c>
@@ -33025,7 +33029,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>423</v>
       </c>
@@ -33135,7 +33139,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>425</v>
       </c>
@@ -33245,7 +33249,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -33355,7 +33359,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>440</v>
       </c>
@@ -33465,7 +33469,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>442</v>
       </c>
@@ -33473,7 +33477,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -33583,7 +33587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>414</v>
       </c>
@@ -33693,7 +33697,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>416</v>
       </c>
@@ -33803,7 +33807,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>418</v>
       </c>
@@ -33913,7 +33917,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>420</v>
       </c>
@@ -34023,7 +34027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>292</v>
       </c>
@@ -34133,7 +34137,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -34243,7 +34247,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>425</v>
       </c>
@@ -34353,7 +34357,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>304</v>
       </c>
@@ -34463,7 +34467,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -34573,7 +34577,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>411</v>
       </c>
@@ -34584,7 +34588,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>412</v>
       </c>
@@ -34694,7 +34698,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -34804,7 +34808,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>416</v>
       </c>
@@ -34914,7 +34918,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>418</v>
       </c>
@@ -35024,7 +35028,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>420</v>
       </c>
@@ -35134,7 +35138,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -35244,7 +35248,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>423</v>
       </c>
@@ -35354,7 +35358,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>425</v>
       </c>
@@ -35464,7 +35468,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>304</v>
       </c>
@@ -35574,7 +35578,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>497</v>
       </c>
@@ -35684,7 +35688,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>499</v>
       </c>
@@ -35692,7 +35696,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>411</v>
       </c>
@@ -35700,7 +35704,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>412</v>
       </c>
@@ -35810,7 +35814,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>414</v>
       </c>
@@ -35920,7 +35924,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>416</v>
       </c>
@@ -36030,7 +36034,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>418</v>
       </c>
@@ -36140,7 +36144,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -36250,7 +36254,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>292</v>
       </c>
@@ -36360,7 +36364,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -36470,7 +36474,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>425</v>
       </c>
@@ -36580,7 +36584,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>304</v>
       </c>
@@ -36690,7 +36694,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>509</v>
       </c>
@@ -36797,7 +36801,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>430</v>
       </c>
@@ -36805,7 +36809,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>412</v>
       </c>
@@ -36915,7 +36919,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>414</v>
       </c>
@@ -37025,7 +37029,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>416</v>
       </c>
@@ -37135,7 +37139,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>418</v>
       </c>
@@ -37245,7 +37249,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>420</v>
       </c>
@@ -37355,7 +37359,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -37465,7 +37469,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>423</v>
       </c>
@@ -37575,7 +37579,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>425</v>
       </c>
@@ -37685,7 +37689,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>304</v>
       </c>
@@ -37795,7 +37799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>520</v>
       </c>
@@ -37902,7 +37906,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -37910,7 +37914,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>412</v>
       </c>
@@ -38020,7 +38024,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>414</v>
       </c>
@@ -38130,7 +38134,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>416</v>
       </c>
@@ -38240,7 +38244,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>418</v>
       </c>
@@ -38350,7 +38354,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>420</v>
       </c>
@@ -38460,7 +38464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -38570,7 +38574,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>423</v>
       </c>
@@ -38680,7 +38684,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>425</v>
       </c>
@@ -38790,7 +38794,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -38900,7 +38904,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>531</v>
       </c>
@@ -39007,7 +39011,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>533</v>
       </c>
@@ -39114,7 +39118,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>535</v>
       </c>
@@ -39122,7 +39126,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>411</v>
       </c>
@@ -39130,7 +39134,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>412</v>
       </c>
@@ -39240,7 +39244,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>414</v>
       </c>
@@ -39350,7 +39354,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>416</v>
       </c>
@@ -39460,7 +39464,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>418</v>
       </c>
@@ -39570,7 +39574,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>420</v>
       </c>
@@ -39680,7 +39684,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>292</v>
       </c>
@@ -39790,7 +39794,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>423</v>
       </c>
@@ -39900,7 +39904,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -40010,7 +40014,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>304</v>
       </c>
@@ -40120,7 +40124,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -40230,7 +40234,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -40238,7 +40242,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -40348,7 +40352,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>414</v>
       </c>
@@ -40458,7 +40462,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -40568,7 +40572,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>418</v>
       </c>
@@ -40678,7 +40682,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>420</v>
       </c>
@@ -40788,7 +40792,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -40898,7 +40902,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>423</v>
       </c>
@@ -41008,7 +41012,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>425</v>
       </c>
@@ -41118,7 +41122,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -41228,7 +41232,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>440</v>
       </c>
@@ -41338,7 +41342,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>442</v>
       </c>
@@ -41346,7 +41350,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>412</v>
       </c>
@@ -41456,7 +41460,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>414</v>
       </c>
@@ -41566,7 +41570,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>416</v>
       </c>
@@ -41676,7 +41680,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>418</v>
       </c>
@@ -41786,7 +41790,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>420</v>
       </c>
@@ -41896,7 +41900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>292</v>
       </c>
@@ -42006,7 +42010,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>423</v>
       </c>
@@ -42116,7 +42120,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>425</v>
       </c>
@@ -42226,7 +42230,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>304</v>
       </c>
@@ -42336,7 +42340,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>452</v>
       </c>
@@ -42446,7 +42450,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -42556,7 +42560,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -42564,7 +42568,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>499</v>
       </c>
@@ -42572,7 +42576,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>411</v>
       </c>
@@ -42580,7 +42584,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>412</v>
       </c>
@@ -42690,7 +42694,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>414</v>
       </c>
@@ -42800,7 +42804,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>416</v>
       </c>
@@ -42910,7 +42914,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>418</v>
       </c>
@@ -43020,7 +43024,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>420</v>
       </c>
@@ -43130,7 +43134,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>292</v>
       </c>
@@ -43240,7 +43244,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>423</v>
       </c>
@@ -43350,7 +43354,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -43460,7 +43464,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>304</v>
       </c>
@@ -43570,7 +43574,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -43677,7 +43681,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -43685,7 +43689,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>412</v>
       </c>
@@ -43795,7 +43799,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>414</v>
       </c>
@@ -43905,7 +43909,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>416</v>
       </c>
@@ -44015,7 +44019,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>418</v>
       </c>
@@ -44125,7 +44129,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>420</v>
       </c>
@@ -44235,7 +44239,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>292</v>
       </c>
@@ -44345,7 +44349,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>423</v>
       </c>
@@ -44455,7 +44459,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -44565,7 +44569,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>304</v>
       </c>
@@ -44675,7 +44679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>520</v>
       </c>
@@ -44782,7 +44786,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>442</v>
       </c>
@@ -44790,7 +44794,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>412</v>
       </c>
@@ -44900,7 +44904,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>414</v>
       </c>
@@ -45010,7 +45014,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>416</v>
       </c>
@@ -45120,7 +45124,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>418</v>
       </c>
@@ -45230,7 +45234,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>420</v>
       </c>
@@ -45340,7 +45344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>292</v>
       </c>
@@ -45450,7 +45454,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>423</v>
       </c>
@@ -45560,7 +45564,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>425</v>
       </c>
@@ -45670,7 +45674,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>304</v>
       </c>
@@ -45780,7 +45784,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>531</v>
       </c>
@@ -45887,7 +45891,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>533</v>
       </c>
@@ -45994,7 +45998,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>598</v>
       </c>
@@ -46002,7 +46006,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>411</v>
       </c>
@@ -46010,7 +46014,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>412</v>
       </c>
@@ -46120,7 +46124,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>414</v>
       </c>
@@ -46230,7 +46234,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>416</v>
       </c>
@@ -46340,7 +46344,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>418</v>
       </c>
@@ -46450,7 +46454,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>420</v>
       </c>
@@ -46560,7 +46564,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>292</v>
       </c>
@@ -46670,7 +46674,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>423</v>
       </c>
@@ -46780,7 +46784,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>425</v>
       </c>
@@ -46890,7 +46894,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>304</v>
       </c>
@@ -47000,7 +47004,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>428</v>
       </c>
@@ -47110,7 +47114,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>430</v>
       </c>
@@ -47118,7 +47122,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>412</v>
       </c>
@@ -47228,7 +47232,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>414</v>
       </c>
@@ -47338,7 +47342,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>416</v>
       </c>
@@ -47448,7 +47452,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>418</v>
       </c>
@@ -47558,7 +47562,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>420</v>
       </c>
@@ -47668,7 +47672,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>292</v>
       </c>
@@ -47778,7 +47782,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -47888,7 +47892,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>425</v>
       </c>
@@ -47998,7 +48002,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>304</v>
       </c>
@@ -48108,7 +48112,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>440</v>
       </c>
@@ -48218,7 +48222,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>442</v>
       </c>
@@ -48226,7 +48230,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>412</v>
       </c>
@@ -48336,7 +48340,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>414</v>
       </c>
@@ -48446,7 +48450,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>416</v>
       </c>
@@ -48556,7 +48560,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>418</v>
       </c>
@@ -48666,7 +48670,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>420</v>
       </c>
@@ -48776,7 +48780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -48886,7 +48890,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>423</v>
       </c>
@@ -48996,7 +49000,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>425</v>
       </c>
@@ -49106,7 +49110,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>304</v>
       </c>
@@ -49216,7 +49220,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>452</v>
       </c>
@@ -49326,7 +49330,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>280</v>
       </c>
@@ -49436,7 +49440,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -49444,7 +49448,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>630</v>
       </c>
@@ -49554,7 +49558,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>632</v>
       </c>
@@ -49664,7 +49668,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>634</v>
       </c>
@@ -49672,7 +49676,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>635</v>
       </c>
@@ -49782,7 +49786,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>637</v>
       </c>
@@ -49892,7 +49896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>639</v>
       </c>
@@ -50002,7 +50006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>641</v>
       </c>
@@ -50112,7 +50116,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -50120,7 +50124,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>643</v>
       </c>
@@ -50230,7 +50234,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>632</v>
       </c>
@@ -50340,7 +50344,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>634</v>
       </c>
@@ -50348,7 +50352,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>635</v>
       </c>
@@ -50458,7 +50462,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>637</v>
       </c>
@@ -50568,7 +50572,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>639</v>
       </c>
@@ -50678,7 +50682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>641</v>
       </c>
@@ -50788,7 +50792,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -50796,7 +50800,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>650</v>
       </c>
@@ -50906,7 +50910,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>652</v>
       </c>
@@ -51016,7 +51020,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>654</v>
       </c>
@@ -51126,7 +51130,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>634</v>
       </c>
@@ -51134,7 +51138,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>635</v>
       </c>
@@ -51244,7 +51248,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>637</v>
       </c>
@@ -51354,7 +51358,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>639</v>
       </c>
@@ -51464,7 +51468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>641</v>
       </c>
@@ -51586,18 +51590,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>129</v>
       </c>
@@ -51623,7 +51627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51650,7 +51654,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51678,7 +51682,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51704,7 +51708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51730,7 +51734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51756,7 +51760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51782,11 +51786,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -51808,19 +51812,19 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>129</v>
       </c>
@@ -51846,7 +51850,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51874,7 +51878,7 @@
       <c r="I2" s="32"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51901,7 +51905,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51927,7 +51931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51953,7 +51957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51979,7 +51983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -52005,7 +52009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -52027,147 +52031,147 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E34" s="13">
         <v>2020</v>
       </c>
@@ -52202,7 +52206,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>142</v>
       </c>
@@ -52240,7 +52244,7 @@
         <v>0.23878898573568191</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
         <v>141</v>
       </c>
@@ -52278,7 +52282,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>925</v>
       </c>
@@ -52298,7 +52302,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -52327,24 +52331,24 @@
   </sheetPr>
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="13"/>
-    <col min="8" max="9" width="9.1640625" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="13"/>
+    <col min="7" max="7" width="9.1796875" style="13"/>
+    <col min="8" max="9" width="9.1796875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>103</v>
       </c>
@@ -52363,7 +52367,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -52380,7 +52384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
@@ -52397,7 +52401,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>106</v>
       </c>
@@ -52414,12 +52418,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -52433,7 +52437,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -52447,7 +52451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -52589,7 +52593,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -52735,7 +52739,7 @@
         <v>0.79961186083390279</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
@@ -52876,7 +52880,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" s="13" t="s">
         <v>3</v>
       </c>
@@ -53015,7 +53019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
@@ -53156,7 +53160,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
@@ -53297,7 +53301,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
@@ -53438,7 +53442,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29" t="s">
@@ -53581,7 +53585,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
@@ -53728,7 +53732,7 @@
         <v>0.79121044589552558</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
@@ -53868,7 +53872,7 @@
         <v>1.2353695258898179E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" s="13" t="s">
         <v>3</v>
       </c>
@@ -54007,7 +54011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" s="13" t="s">
         <v>4</v>
       </c>
@@ -54147,7 +54151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
@@ -54288,7 +54292,7 @@
         <v>6.482659698878529E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" s="13" t="s">
         <v>125</v>
       </c>
@@ -54429,7 +54433,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
@@ -54572,7 +54576,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>13</v>
       </c>
@@ -54718,7 +54722,7 @@
         <v>0.79121044589552558</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C24" s="13" t="s">
         <v>2</v>
       </c>
@@ -54859,7 +54863,7 @@
         <v>5.5057958314065986E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" s="13" t="s">
         <v>3</v>
       </c>
@@ -55000,7 +55004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
@@ -55139,7 +55143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" s="13" t="s">
         <v>5</v>
       </c>
@@ -55280,7 +55284,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" s="13" t="s">
         <v>125</v>
       </c>
@@ -55288,140 +55292,139 @@
         <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="27" t="e">
-        <f>E35*($D$28/$D$35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="8" t="e">
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="str">
         <f>IF(D28=E28,"n/a",IF(OR(C28="battery electric vehicle",C28="natural gas vehicle",C28="plugin hybrid vehicle",C28="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>#DIV/0!</v>
+        <v>n/a</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="13" t="e">
+      <c r="I28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:I$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,I$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:J$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:K$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,K$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:L$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,L$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:M$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,M$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="N28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:N$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,N$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:O$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,O$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:P$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,P$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:Q$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,Q$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:R$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,R$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:S$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,S$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:T$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,T$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:U$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,U$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:V$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,V$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:W$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,W$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:X$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,X$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:Y$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,Y$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:Z$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,Z$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AA$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AA$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AB$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AB$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AC$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AC$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AD$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AD$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AE$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AE$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AF$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AF$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AG$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AG$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AH$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AH$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AI$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AI$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AJ$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AJ$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AK$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AK$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL28" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="13">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$8:AL$8)+$I$4))),TREND($D28:$E28,$D$8:$E$8,AL$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29" t="s">
@@ -55431,140 +55434,139 @@
         <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="35" t="e">
-        <f>E36*($D$28/$D$35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="9" t="e">
+      <c r="E29" s="35">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9" t="str">
         <f>IF(D29=E29,"n/a",IF(OR(C29="battery electric vehicle",C29="natural gas vehicle",C29="plugin hybrid vehicle",C29="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>#DIV/0!</v>
+        <v>n/a</v>
       </c>
       <c r="H29" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="13" t="e">
+      <c r="I29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:I$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,I$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:J$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:K$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,K$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:L$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,L$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:M$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,M$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:N$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,N$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:O$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,O$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:P$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,P$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:Q$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,Q$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:R$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,R$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:S$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,S$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:T$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,T$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:U$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,U$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:V$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,V$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="W29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:W$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,W$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="X29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:X$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,X$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:Y$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,Y$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:Z$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,Z$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AA$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AA$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AB$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AB$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AC$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AC$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AD$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AD$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AE$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AE$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AF$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AF$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AG$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AG$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AH$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AH$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AI$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AI$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AJ$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AJ$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AK$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AK$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="13">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$8:AL$8)+$I$4))),TREND($D29:$E29,$D$8:$E$8,AL$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>13</v>
       </c>
@@ -55711,7 +55713,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C31" s="13" t="s">
         <v>2</v>
       </c>
@@ -55852,7 +55854,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" s="13" t="s">
         <v>3</v>
       </c>
@@ -55991,7 +55993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" s="13" t="s">
         <v>4</v>
       </c>
@@ -56130,7 +56132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" s="13" t="s">
         <v>5</v>
       </c>
@@ -56271,7 +56273,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" s="13" t="s">
         <v>125</v>
       </c>
@@ -56412,7 +56414,7 @@
         <v>6.1785980743151447E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29" t="s">
@@ -56555,7 +56557,7 @@
         <v>6.099269185772741E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>14</v>
       </c>
@@ -56700,7 +56702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C38" s="13" t="s">
         <v>2</v>
       </c>
@@ -56839,7 +56841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" s="13" t="s">
         <v>3</v>
       </c>
@@ -56978,7 +56980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
       <c r="C40" s="13" t="s">
         <v>4</v>
@@ -57118,7 +57120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="28"/>
       <c r="C41" s="13" t="s">
         <v>5</v>
@@ -57258,7 +57260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="28"/>
       <c r="C42" s="13" t="s">
         <v>125</v>
@@ -57398,7 +57400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29" t="s">
@@ -57539,7 +57541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>14</v>
       </c>
@@ -57684,7 +57686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C45" s="13" t="s">
         <v>2</v>
       </c>
@@ -57823,7 +57825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" s="13" t="s">
         <v>3</v>
       </c>
@@ -57962,7 +57964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" s="13" t="s">
         <v>4</v>
       </c>
@@ -58101,7 +58103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" s="13" t="s">
         <v>5</v>
       </c>
@@ -58240,7 +58242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" s="13" t="s">
         <v>125</v>
       </c>
@@ -58379,7 +58381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29" t="s">
@@ -58520,7 +58522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>15</v>
       </c>
@@ -58666,7 +58668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C52" s="13" t="s">
         <v>2</v>
       </c>
@@ -58805,7 +58807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" s="13" t="s">
         <v>3</v>
       </c>
@@ -58944,7 +58946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" s="13" t="s">
         <v>4</v>
       </c>
@@ -59084,7 +59086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="28"/>
       <c r="C55" s="13" t="s">
         <v>5</v>
@@ -59224,7 +59226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="28"/>
       <c r="C56" s="13" t="s">
         <v>125</v>
@@ -59364,7 +59366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29" t="s">
@@ -59505,7 +59507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="28" t="s">
         <v>15</v>
       </c>
@@ -59650,7 +59652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="28"/>
       <c r="C59" s="13" t="s">
         <v>2</v>
@@ -59790,7 +59792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="28"/>
       <c r="C60" s="13" t="s">
         <v>3</v>
@@ -59930,7 +59932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C61" s="13" t="s">
         <v>4</v>
       </c>
@@ -60069,7 +60071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" s="13" t="s">
         <v>5</v>
       </c>
@@ -60208,7 +60210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" s="13" t="s">
         <v>125</v>
       </c>
@@ -60347,7 +60349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29" t="s">
@@ -60488,7 +60490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>16</v>
       </c>
@@ -60633,7 +60635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C66" s="13" t="s">
         <v>2</v>
       </c>
@@ -60772,7 +60774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" s="13" t="s">
         <v>3</v>
       </c>
@@ -60912,7 +60914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" s="13" t="s">
         <v>4</v>
       </c>
@@ -61052,7 +61054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" s="13" t="s">
         <v>5</v>
       </c>
@@ -61191,7 +61193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" s="13" t="s">
         <v>125</v>
       </c>
@@ -61330,7 +61332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29" t="s">
@@ -61471,7 +61473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72" s="28" t="s">
         <v>16</v>
       </c>
@@ -61616,7 +61618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C73" s="13" t="s">
         <v>2</v>
       </c>
@@ -61755,7 +61757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" s="13" t="s">
         <v>3</v>
       </c>
@@ -61894,7 +61896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" s="13" t="s">
         <v>4</v>
       </c>
@@ -62033,7 +62035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" s="13" t="s">
         <v>5</v>
       </c>
@@ -62172,7 +62174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" s="13" t="s">
         <v>125</v>
       </c>
@@ -62311,7 +62313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29" t="s">
@@ -62452,7 +62454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>17</v>
       </c>
@@ -62598,7 +62600,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C80" s="13" t="s">
         <v>2</v>
       </c>
@@ -62738,7 +62740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" s="13" t="s">
         <v>3</v>
       </c>
@@ -62877,7 +62879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" s="13" t="s">
         <v>4</v>
       </c>
@@ -63017,7 +63019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" s="13" t="s">
         <v>5</v>
       </c>
@@ -63157,7 +63159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" s="13" t="s">
         <v>125</v>
       </c>
@@ -63297,7 +63299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29" t="s">
@@ -63439,7 +63441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A86" s="28" t="s">
         <v>17</v>
       </c>
@@ -63584,7 +63586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C87" s="13" t="s">
         <v>2</v>
       </c>
@@ -63723,7 +63725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" s="13" t="s">
         <v>3</v>
       </c>
@@ -63862,7 +63864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" s="13" t="s">
         <v>4</v>
       </c>
@@ -64001,7 +64003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" s="13" t="s">
         <v>5</v>
       </c>
@@ -64140,7 +64142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" s="13" t="s">
         <v>125</v>
       </c>
@@ -64279,7 +64281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29" t="s">
@@ -64434,15 +64436,17 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="13"/>
+    <col min="1" max="1" width="24.36328125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>128</v>
       </c>
@@ -64571,7 +64575,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -64700,7 +64704,7 @@
         <v>0.79961186083390279</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -64829,7 +64833,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -64958,7 +64962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -65087,7 +65091,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -65216,7 +65220,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>125</v>
       </c>
@@ -65345,7 +65349,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>126</v>
       </c>
